--- a/VS680_Scripts/vs680scripts/launchTimeTest/BestTestAppLaunchTime/Touch启动时间测试用例.xlsx
+++ b/VS680_Scripts/vs680scripts/launchTimeTest/BestTestAppLaunchTime/Touch启动时间测试用例.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\VS680_Scripts\vs680scripts\launchTimeTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\VS680_Scripts\vs680scripts\launchTimeTest\BestTestAppLaunchTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE63CC6-3614-4DDF-9384-F50AC4E269A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB4CD9B-D0C4-479F-9FFD-02B2884A256A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BFA8804D-9C84-4953-B7CF-72ABD60F94DA}"/>
   </bookViews>
@@ -25,216 +25,221 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t>测试应用包名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测应用Activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果_平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.wemeet.app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.wemeet.app.StartupActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amplitude Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.marvell.tvsample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.marvell.tvsample.StreamSelectionActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ss.android.lark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ss.android.lark.authorization.AuthorizationActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElectronicWhiteboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio Router</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meeting Record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screencasting Guide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双屏异显测试专用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB无线投屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchhdmi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.seevision.painter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.seevision.painter.PainterActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.synaptics.aisample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.synaptics.aisample.StreamSelectionActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.tv.settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.fm.tvsettings.MainActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.synaptics.audiorouter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.synaptics.audiorouter.MainActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.seevision.android.documentsui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.filemanager.FilesCategoryActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.seevision.meetingassistant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.seevision.meetingassistant.MainActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.seevision.screencastingassistant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.seevision.screencastingassistant.ScreencastingMainActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.seevision.usermanual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.seevision.usermanual.ui.MainActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm.plugin.account.ui.WelcomeActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.synaptics.tv.settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.synaptics.tv.settings.DisplayActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mn2square.videolistingmvp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mn2square.videolistingmvp.activity.presenter.VideoListingActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.senarytech.switchhdmi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.senarytech.switchhdmi.MainActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>测试应用名称</t>
-  </si>
-  <si>
-    <t>测试应用包名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待测应用Activity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果_平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.wemeet.app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯会议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.wemeet.app.StartupActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amplitude Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.marvell.tvsample</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.marvell.tvsample.StreamSelectionActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ss.android.lark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ss.android.lark.authorization.AuthorizationActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElectronicWhiteboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI Demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Audio Router</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Files</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meeting Record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Screencasting Guide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户手册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Display Mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双屏异显测试专用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB无线投屏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switchhdmi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.seevision.painter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.seevision.painter.PainterActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.synaptics.aisample</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.synaptics.aisample.StreamSelectionActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.android.tv.settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.android.fm.tvsettings.MainActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.synaptics.audiorouter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.synaptics.audiorouter.MainActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.seevision.android.documentsui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.filemanager.FilesCategoryActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.seevision.meetingassistant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.seevision.meetingassistant.MainActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.seevision.screencastingassistant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.seevision.screencastingassistant.ScreencastingMainActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.seevision.usermanual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.seevision.usermanual.ui.MainActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm.plugin.account.ui.WelcomeActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.synaptics.tv.settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.synaptics.tv.settings.DisplayActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mn2square.videolistingmvp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mn2square.videolistingmvp.activity.presenter.VideoListingActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.bozee.usbdisplay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.bozee.usbdisplay.StartupActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.senarytech.switchhdmi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.senarytech.switchhdmi.MainActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.systemui.media.MediaProjectionPermissionActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys2003:com.android.systemui</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,213 +607,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9FDC27-AE46-41C4-95BF-43A0544C1E11}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.4140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="19.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.4140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/VS680_Scripts/vs680scripts/launchTimeTest/BestTestAppLaunchTime/Touch启动时间测试用例.xlsx
+++ b/VS680_Scripts/vs680scripts/launchTimeTest/BestTestAppLaunchTime/Touch启动时间测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\VS680_Scripts\vs680scripts\launchTimeTest\BestTestAppLaunchTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB4CD9B-D0C4-479F-9FFD-02B2884A256A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E13023-CE04-456D-956F-619CFA5D34EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BFA8804D-9C84-4953-B7CF-72ABD60F94DA}"/>
   </bookViews>
@@ -610,7 +610,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/VS680_Scripts/vs680scripts/launchTimeTest/BestTestAppLaunchTime/Touch启动时间测试用例.xlsx
+++ b/VS680_Scripts/vs680scripts/launchTimeTest/BestTestAppLaunchTime/Touch启动时间测试用例.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\VS680_Scripts\vs680scripts\launchTimeTest\BestTestAppLaunchTime\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF414D52-BA37-4945-B495-8458C5A94EF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Touch启动时间测试" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>测试应用名称</t>
   </si>
@@ -178,18 +184,64 @@
     <t>com.senarytech.switchhdmi.MainActivity</t>
   </si>
   <si>
-    <t>[123, 982, 134]_435</t>
+    <t>[283, 273, 270, 301, 302, 275, 334, 337, 269, 336, 352, 288, 283, 378, 362, 351, 281, 270, 361, 268, 325, 303, 348, 339, 375, 344, 268, 366, 345, 324]_317.033</t>
+  </si>
+  <si>
+    <t>[1247, 1076, 1012, 1079, 1085, 1021, 1028, 1068, 1129, 1049, 1034, 1068, 1092, 1120, 1093, 1127, 1103, 1038, 1084, 1219, 1108, 1081, 1112, 1116, 1068, 1116, 1089, 1048, 1119, 1112]_1091.367</t>
+  </si>
+  <si>
+    <t>[449, 509, 480, 494, 521, 545, 534, 539, 460, 623, 522, 597, 526, 557, 544, 494, 545, 550, 549, 518, 568, 533, 485, 520, 544, 487, 453, 587, 513, 584]_527.667</t>
+  </si>
+  <si>
+    <t>[382, 294, 333, 345, 268, 285, 343, 287, 317, 352, 352, 399, 358, 379, 381, 335, 319, 317, 278, 335, 290, 275, 304, 290, 336, 367, 321, 345, 330, 330]_328.233</t>
+  </si>
+  <si>
+    <t>[256, 286, 346, 376, 332, 249, 282, 346, 268, 365, 318, 270, 270, 368, 251, 259, 329, 270, 334, 300, 266, 296, 288, 252, 288, 246, 367, 369, 248, 224]_297.3</t>
+  </si>
+  <si>
+    <t>[360, 381, 367, 382, 418, 349, 322, 414, 422, 381, 346, 423, 425, 441, 409, 398, 346, 363, 381, 418, 334, 436, 335, 349, 439, 425, 341, 349, 410, 341]_383.5</t>
+  </si>
+  <si>
+    <t>[469, 567, 550, 507, 547, 478, 522, 554, 568, 533, 588, 515, 468, 538, 558, 567, 541, 565, 563, 562, 484, 506, 538, 488, 574, 563, 484, 545, 433, 522]_529.9</t>
+  </si>
+  <si>
+    <t>[474, 426, 417, 415, 378, 492, 425, 414, 416, 440, 440, 448, 437, 429, 417, 384, 460, 372, 433, 463, 454, 383, 471, 438, 459, 449, 443, 408, 461, 370]_430.533</t>
+  </si>
+  <si>
+    <t>[332, 305, 366, 298, 316, 314, 320, 344, 314, 307, 302, 255, 320, 290, 302, 289, 269, 276, 298, 283, 290, 304, 300, 319, 316, 286, 270, 317, 298, 292]_303.067</t>
+  </si>
+  <si>
+    <t>[489, 521, 507, 491, 570, 505, 608, 538, 552, 554, 554, 580, 493, 519, 505, 508, 547, 592, 598, 564, 548, 555, 524, 566, 595, 533, 525, 506, 589, 585]_544.033</t>
+  </si>
+  <si>
+    <t>[3034, 2697, 2606, 2587, 2600, 2720, 0, 2567, 2585, 2573, 2624, 2523, 2585, 2651, 2589, 2604, 2568, 2575, 2548, 2561, 2589, 2662, 2548, 2607, 2667, 2568, 2621, 0, 2623, 2554]_2441.2</t>
+  </si>
+  <si>
+    <t>[325, 404, 344, 364, 446, 406, 449, 441, 471, 383, 350, 331, 339, 360, 406, 443, 409, 376, 418, 414, 429, 428, 420, 446, 371, 382, 398, 388, 425, 410]_399.2</t>
+  </si>
+  <si>
+    <t>[543, 584, 620, 620, 543, 614, 638, 563, 538, 566, 604, 632, 600, 629, 606, 606, 531, 597, 555, 572, 545, 553, 582, 658, 603, 586, 581, 568, 646, 600]_589.433</t>
+  </si>
+  <si>
+    <t>[667, 568, 640, 588, 646, 609, 583, 549, 599, 576, 605, 586, 538, 557, 616, 585, 555, 663, 660, 597, 693, 600, 654, 667, 588, 585, 595, 567, 569, 592]_603.233</t>
+  </si>
+  <si>
+    <t>[524, 424, 500, 458, 443, 548, 532, 538, 534, 503, 440, 530, 541, 550, 553, 523, 550, 552, 482, 499, 462, 422, 545, 513, 537, 499, 522, 485, 539, 523]_509.033</t>
+  </si>
+  <si>
+    <t>[625, 553, 535, 583, 529, 576, 633, 511, 582, 539, 566, 579, 603, 572, 593, 597, 617, 600, 483, 565, 509, 513, 505, 636, 613, 628, 613, 615, 522, 562]_571.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -197,8 +249,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -237,22 +296,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -294,7 +368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,9 +400,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,6 +452,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,14 +645,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="8.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="39.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="4"/>
+    <col min="6" max="6" width="53" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -558,247 +679,333 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" s="4">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="E3" s="4">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4" s="4">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E5" s="4">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6" s="4">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="E7" s="4">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="E8" s="4">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="E9" s="4">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="E10" s="4">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11" s="4">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12" s="4">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E13" s="4">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="E14" s="4">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="E15" s="4">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="4">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="E17" s="4">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/VS680_Scripts/vs680scripts/launchTimeTest/BestTestAppLaunchTime/Touch启动时间测试用例.xlsx
+++ b/VS680_Scripts/vs680scripts/launchTimeTest/BestTestAppLaunchTime/Touch启动时间测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\VS680_Scripts\vs680scripts\launchTimeTest\BestTestAppLaunchTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF414D52-BA37-4945-B495-8458C5A94EF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326AD103-9562-4B72-B6FA-D69D8DB74DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -308,6 +308,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -649,13 +653,13 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="2" width="8.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="3" customWidth="1"/>
     <col min="3" max="3" width="39.26953125" style="4" customWidth="1"/>
     <col min="4" max="4" width="42.6328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" style="4"/>
@@ -663,11 +667,11 @@
     <col min="7" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -687,19 +691,19 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="4">
-        <v>30</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="6">
+        <v>30</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -707,19 +711,19 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4">
-        <v>30</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="6">
+        <v>30</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -727,19 +731,19 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="4">
-        <v>30</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="6">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -747,19 +751,19 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="4">
-        <v>30</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="6">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -767,19 +771,19 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="4">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="6">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -787,19 +791,19 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="4">
-        <v>30</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="6">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -807,19 +811,19 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="4">
-        <v>30</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="6">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -827,19 +831,19 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="4">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="6">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -847,19 +851,19 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="4">
-        <v>30</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="6">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -867,19 +871,19 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="4">
-        <v>30</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="6">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -887,19 +891,19 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="4">
-        <v>30</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="6">
+        <v>30</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -907,19 +911,19 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="4">
-        <v>30</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="6">
+        <v>30</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -927,19 +931,19 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="4">
-        <v>30</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="6">
+        <v>30</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -947,19 +951,19 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="4">
-        <v>30</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="6">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -967,19 +971,19 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="4">
-        <v>30</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="6">
+        <v>30</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -987,19 +991,19 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="4">
-        <v>30</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="6">
+        <v>30</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>68</v>
       </c>
     </row>

--- a/VS680_Scripts/vs680scripts/launchTimeTest/BestTestAppLaunchTime/Touch启动时间测试用例.xlsx
+++ b/VS680_Scripts/vs680scripts/launchTimeTest/BestTestAppLaunchTime/Touch启动时间测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\VS680_Scripts\vs680scripts\launchTimeTest\BestTestAppLaunchTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326AD103-9562-4B72-B6FA-D69D8DB74DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B631D5-1E5B-4C78-8967-CB34887CAE62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,15 +652,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="2" width="8.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="39.26953125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.6328125" style="4" customWidth="1"/>
     <col min="4" max="4" width="42.6328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" style="4"/>
     <col min="6" max="6" width="53" style="3" customWidth="1"/>

--- a/VS680_Scripts/vs680scripts/launchTimeTest/BestTestAppLaunchTime/Touch启动时间测试用例.xlsx
+++ b/VS680_Scripts/vs680scripts/launchTimeTest/BestTestAppLaunchTime/Touch启动时间测试用例.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\VS680_Scripts\vs680scripts\launchTimeTest\BestTestAppLaunchTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B631D5-1E5B-4C78-8967-CB34887CAE62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8002A1-64FD-4872-BCE9-1F72720B5669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="1190" windowWidth="12800" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Touch启动时间测试" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -667,7 +667,7 @@
     <col min="7" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>

--- a/VS680_Scripts/vs680scripts/launchTimeTest/BestTestAppLaunchTime/Touch启动时间测试用例.xlsx
+++ b/VS680_Scripts/vs680scripts/launchTimeTest/BestTestAppLaunchTime/Touch启动时间测试用例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\VS680_Scripts\vs680scripts\launchTimeTest\BestTestAppLaunchTime\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\VS680_Scripts\vs680scripts\launchTimeTest\BestTestAppLaunchTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8002A1-64FD-4872-BCE9-1F72720B5669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017C4AD8-3953-4022-8B89-D2EE4B94EABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="1190" windowWidth="12800" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Touch启动时间测试" sheetId="1" r:id="rId1"/>
@@ -653,18 +653,18 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="2" width="21.36328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="8.77734375" style="4"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="4"/>
     <col min="6" max="6" width="53" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="4"/>
+    <col min="7" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -707,7 +707,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -727,7 +727,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -747,7 +747,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -767,7 +767,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="56" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -787,7 +787,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="56" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -807,7 +807,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -827,7 +827,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -847,7 +847,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -867,7 +867,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -887,7 +887,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -907,7 +907,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="56" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -927,7 +927,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="56" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -947,7 +947,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="56" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -967,7 +967,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="56" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -987,7 +987,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="56" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>

--- a/VS680_Scripts/vs680scripts/launchTimeTest/BestTestAppLaunchTime/Touch启动时间测试用例.xlsx
+++ b/VS680_Scripts/vs680scripts/launchTimeTest/BestTestAppLaunchTime/Touch启动时间测试用例.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\VS680_Scripts\vs680scripts\launchTimeTest\BestTestAppLaunchTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017C4AD8-3953-4022-8B89-D2EE4B94EABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E749E8FD-1214-47B8-9F58-1B5BBC317B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Touch启动时间测试" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>测试应用名称</t>
   </si>
@@ -34,7 +34,10 @@
     <t>测试次数</t>
   </si>
   <si>
-    <t>测试结果_平均值</t>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>平均值</t>
   </si>
   <si>
     <t>case序号</t>
@@ -184,52 +187,91 @@
     <t>com.senarytech.switchhdmi.MainActivity</t>
   </si>
   <si>
-    <t>[283, 273, 270, 301, 302, 275, 334, 337, 269, 336, 352, 288, 283, 378, 362, 351, 281, 270, 361, 268, 325, 303, 348, 339, 375, 344, 268, 366, 345, 324]_317.033</t>
-  </si>
-  <si>
-    <t>[1247, 1076, 1012, 1079, 1085, 1021, 1028, 1068, 1129, 1049, 1034, 1068, 1092, 1120, 1093, 1127, 1103, 1038, 1084, 1219, 1108, 1081, 1112, 1116, 1068, 1116, 1089, 1048, 1119, 1112]_1091.367</t>
-  </si>
-  <si>
-    <t>[449, 509, 480, 494, 521, 545, 534, 539, 460, 623, 522, 597, 526, 557, 544, 494, 545, 550, 549, 518, 568, 533, 485, 520, 544, 487, 453, 587, 513, 584]_527.667</t>
-  </si>
-  <si>
-    <t>[382, 294, 333, 345, 268, 285, 343, 287, 317, 352, 352, 399, 358, 379, 381, 335, 319, 317, 278, 335, 290, 275, 304, 290, 336, 367, 321, 345, 330, 330]_328.233</t>
-  </si>
-  <si>
-    <t>[256, 286, 346, 376, 332, 249, 282, 346, 268, 365, 318, 270, 270, 368, 251, 259, 329, 270, 334, 300, 266, 296, 288, 252, 288, 246, 367, 369, 248, 224]_297.3</t>
-  </si>
-  <si>
-    <t>[360, 381, 367, 382, 418, 349, 322, 414, 422, 381, 346, 423, 425, 441, 409, 398, 346, 363, 381, 418, 334, 436, 335, 349, 439, 425, 341, 349, 410, 341]_383.5</t>
-  </si>
-  <si>
-    <t>[469, 567, 550, 507, 547, 478, 522, 554, 568, 533, 588, 515, 468, 538, 558, 567, 541, 565, 563, 562, 484, 506, 538, 488, 574, 563, 484, 545, 433, 522]_529.9</t>
-  </si>
-  <si>
-    <t>[474, 426, 417, 415, 378, 492, 425, 414, 416, 440, 440, 448, 437, 429, 417, 384, 460, 372, 433, 463, 454, 383, 471, 438, 459, 449, 443, 408, 461, 370]_430.533</t>
-  </si>
-  <si>
-    <t>[332, 305, 366, 298, 316, 314, 320, 344, 314, 307, 302, 255, 320, 290, 302, 289, 269, 276, 298, 283, 290, 304, 300, 319, 316, 286, 270, 317, 298, 292]_303.067</t>
-  </si>
-  <si>
-    <t>[489, 521, 507, 491, 570, 505, 608, 538, 552, 554, 554, 580, 493, 519, 505, 508, 547, 592, 598, 564, 548, 555, 524, 566, 595, 533, 525, 506, 589, 585]_544.033</t>
-  </si>
-  <si>
-    <t>[3034, 2697, 2606, 2587, 2600, 2720, 0, 2567, 2585, 2573, 2624, 2523, 2585, 2651, 2589, 2604, 2568, 2575, 2548, 2561, 2589, 2662, 2548, 2607, 2667, 2568, 2621, 0, 2623, 2554]_2441.2</t>
-  </si>
-  <si>
-    <t>[325, 404, 344, 364, 446, 406, 449, 441, 471, 383, 350, 331, 339, 360, 406, 443, 409, 376, 418, 414, 429, 428, 420, 446, 371, 382, 398, 388, 425, 410]_399.2</t>
-  </si>
-  <si>
-    <t>[543, 584, 620, 620, 543, 614, 638, 563, 538, 566, 604, 632, 600, 629, 606, 606, 531, 597, 555, 572, 545, 553, 582, 658, 603, 586, 581, 568, 646, 600]_589.433</t>
-  </si>
-  <si>
-    <t>[667, 568, 640, 588, 646, 609, 583, 549, 599, 576, 605, 586, 538, 557, 616, 585, 555, 663, 660, 597, 693, 600, 654, 667, 588, 585, 595, 567, 569, 592]_603.233</t>
-  </si>
-  <si>
-    <t>[524, 424, 500, 458, 443, 548, 532, 538, 534, 503, 440, 530, 541, 550, 553, 523, 550, 552, 482, 499, 462, 422, 545, 513, 537, 499, 522, 485, 539, 523]_509.033</t>
-  </si>
-  <si>
-    <t>[625, 553, 535, 583, 529, 576, 633, 511, 582, 539, 566, 579, 603, 572, 593, 597, 617, 600, 483, 565, 509, 513, 505, 636, 613, 628, 613, 615, 522, 562]_571.9</t>
+    <t>[517, 454, 446]</t>
+  </si>
+  <si>
+    <t>[163, 87, 255]</t>
+  </si>
+  <si>
+    <t>['当前系统未安装此app：【飞书】，请检查！']</t>
+  </si>
+  <si>
+    <t>[486, 405, 439]</t>
+  </si>
+  <si>
+    <t>[77, 85, 71]</t>
+  </si>
+  <si>
+    <t>[92, 153, 165]</t>
+  </si>
+  <si>
+    <t>[263, 224, 218]</t>
+  </si>
+  <si>
+    <t>[70, 415, 64]</t>
+  </si>
+  <si>
+    <t>[80, 320, 81]</t>
+  </si>
+  <si>
+    <t>[369, 102, 101]</t>
+  </si>
+  <si>
+    <t>[112, 81, 87]</t>
+  </si>
+  <si>
+    <t>[3446, 2437, 2400]</t>
+  </si>
+  <si>
+    <t>[77, 227, 258]</t>
+  </si>
+  <si>
+    <t>[411, 429, 76]</t>
+  </si>
+  <si>
+    <t>[595, 290, 82]</t>
+  </si>
+  <si>
+    <t>[485, 292, 371]</t>
+  </si>
+  <si>
+    <t>77.667</t>
+  </si>
+  <si>
+    <t>136.667</t>
+  </si>
+  <si>
+    <t>235.0</t>
+  </si>
+  <si>
+    <t>183.0</t>
+  </si>
+  <si>
+    <t>160.333</t>
+  </si>
+  <si>
+    <t>190.667</t>
+  </si>
+  <si>
+    <t>93.333</t>
+  </si>
+  <si>
+    <t>2761.0</t>
+  </si>
+  <si>
+    <t>187.333</t>
+  </si>
+  <si>
+    <t>305.333</t>
+  </si>
+  <si>
+    <t>322.333</t>
+  </si>
+  <si>
+    <t>382.667</t>
+  </si>
+  <si>
+    <t>Skip</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -296,22 +338,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -650,28 +681,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="4"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="4"/>
-    <col min="6" max="6" width="53" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="4"/>
+    <col min="6" max="6" width="50.44140625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -683,328 +709,379 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="6">
-        <v>30</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2">
+        <v>472.33300000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="6">
-        <v>30</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>168.333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="6">
-        <v>30</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="6">
-        <v>30</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5">
+        <v>443.33300000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="6">
-        <v>30</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="6">
-        <v>30</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="6">
-        <v>30</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="6">
-        <v>30</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="6">
-        <v>30</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="6">
-        <v>30</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="6">
-        <v>30</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="6">
-        <v>30</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="6">
-        <v>30</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="6">
-        <v>30</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="6">
-        <v>30</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>68</v>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
